--- a/data-raw/hsds.xlsx
+++ b/data-raw/hsds.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Dropbox/HO_database/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\assignR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C340FF2-E261-9D44-8E51-A3730CD4FB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="28140" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="28140" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="hsds" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,30 +179,9 @@
     <t>High_material</t>
   </si>
   <si>
-    <t>High_d2H</t>
-  </si>
-  <si>
-    <t>High_d2H_sd</t>
-  </si>
-  <si>
-    <t>High_d2H_n</t>
-  </si>
-  <si>
-    <t>High_d2H_se</t>
-  </si>
-  <si>
     <t>Low_material</t>
   </si>
   <si>
-    <t>Low_d2H</t>
-  </si>
-  <si>
-    <t>Low_d2H_sd</t>
-  </si>
-  <si>
-    <t>Low_d2H_n</t>
-  </si>
-  <si>
     <t>LAB_1</t>
   </si>
   <si>
@@ -393,9 +371,6 @@
     <t>https://nucleus.iaea.org/rpst/documents/VSMOW_SLAP.pdf</t>
   </si>
   <si>
-    <t>Low_d2H_se</t>
-  </si>
-  <si>
     <t>IBS_1</t>
   </si>
   <si>
@@ -571,12 +546,36 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>High_sd</t>
+  </si>
+  <si>
+    <t>High_n</t>
+  </si>
+  <si>
+    <t>High_se</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Low_sd</t>
+  </si>
+  <si>
+    <t>Low_n</t>
+  </si>
+  <si>
+    <t>Low_se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -669,8 +668,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -947,17 +946,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L35" sqref="L35"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="19" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="19" width="14.81640625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
@@ -972,57 +971,57 @@
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1031,7 +1030,7 @@
         <v>-63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -1043,7 +1042,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>3</v>
@@ -1052,18 +1051,18 @@
         <v>4</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -1082,7 +1081,7 @@
         <v>0.55708601453115558</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
@@ -1101,7 +1100,7 @@
         <v>0.60249481325568266</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>3</v>
@@ -1110,16 +1109,16 @@
         <v>4</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1132,7 +1131,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>11</v>
@@ -1145,7 +1144,7 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>8</v>
@@ -1159,13 +1158,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2">
         <v>-72</v>
@@ -1177,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J5" s="2">
         <v>-138</v>
@@ -1192,10 +1191,10 @@
         <v>5</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>20</v>
@@ -1204,15 +1203,15 @@
         <v>10</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1225,7 +1224,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
@@ -1238,7 +1237,7 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>13</v>
@@ -1252,10 +1251,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1268,7 +1267,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>15</v>
@@ -1281,7 +1280,7 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>13</v>
@@ -1295,10 +1294,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1311,7 +1310,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>15</v>
@@ -1324,7 +1323,7 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>13</v>
@@ -1338,10 +1337,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1354,7 +1353,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>15</v>
@@ -1367,7 +1366,7 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>13</v>
@@ -1381,10 +1380,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1394,7 +1393,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>15</v>
@@ -1404,7 +1403,7 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>13</v>
@@ -1413,15 +1412,15 @@
         <v>20</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1440,7 +1439,7 @@
         <v>0.1170091416963065</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>15</v>
@@ -1459,24 +1458,24 @@
         <v>0.16534083195380267</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1495,7 +1494,7 @@
         <v>0.49193495504995377</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>15</v>
@@ -1514,7 +1513,7 @@
         <v>0.40249223594996214</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>13</v>
@@ -1528,10 +1527,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -1540,7 +1539,7 @@
         <v>-76.3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -1549,7 +1548,7 @@
         <v>-141.6</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>24</v>
@@ -1564,10 +1563,10 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -1586,7 +1585,7 @@
         <v>0.24494897427831783</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -1605,7 +1604,7 @@
         <v>0.69402209378856716</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>27</v>
@@ -1614,15 +1613,15 @@
         <v>20</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -1632,7 +1631,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -1642,7 +1641,7 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>24</v>
@@ -1656,10 +1655,10 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -1672,7 +1671,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -1685,7 +1684,7 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>29</v>
@@ -1694,15 +1693,15 @@
         <v>20</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -1712,7 +1711,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>31</v>
@@ -1722,7 +1721,7 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>24</v>
@@ -1736,10 +1735,10 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -1752,7 +1751,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>31</v>
@@ -1765,7 +1764,7 @@
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>29</v>
@@ -1779,10 +1778,10 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
@@ -1792,7 +1791,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>31</v>
@@ -1802,7 +1801,7 @@
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>33</v>
@@ -1816,10 +1815,10 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -1829,7 +1828,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>31</v>
@@ -1839,7 +1838,7 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>33</v>
@@ -1848,18 +1847,18 @@
         <v>4</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -1869,7 +1868,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>31</v>
@@ -1879,7 +1878,7 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>33</v>
@@ -1893,10 +1892,10 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>36</v>
@@ -1909,7 +1908,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>39</v>
@@ -1922,7 +1921,7 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>37</v>
@@ -1936,10 +1935,10 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1">
       <c r="A23" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
@@ -1952,7 +1951,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>39</v>
@@ -1965,7 +1964,7 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>37</v>
@@ -1980,10 +1979,10 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -1996,7 +1995,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>39</v>
@@ -2009,7 +2008,7 @@
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>37</v>
@@ -2023,10 +2022,10 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>36</v>
@@ -2045,7 +2044,7 @@
         <v>0.34785054261852172</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>39</v>
@@ -2064,7 +2063,7 @@
         <v>0.25298221281347033</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>37</v>
@@ -2073,15 +2072,15 @@
         <v>20</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -2094,7 +2093,7 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>39</v>
@@ -2107,7 +2106,7 @@
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>27</v>
@@ -2116,18 +2115,18 @@
         <v>20</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
@@ -2141,7 +2140,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>43</v>
@@ -2155,7 +2154,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="3"/>
       <c r="N27" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>13</v>
@@ -2169,10 +2168,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
@@ -2185,7 +2184,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>43</v>
@@ -2198,7 +2197,7 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>13</v>
@@ -2212,10 +2211,10 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
@@ -2228,7 +2227,7 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>43</v>
@@ -2241,7 +2240,7 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>13</v>
@@ -2255,10 +2254,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -2271,7 +2270,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>43</v>
@@ -2284,7 +2283,7 @@
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>13</v>
@@ -2298,10 +2297,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
@@ -2320,7 +2319,7 @@
         <v>0.21442250696755896</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>43</v>
@@ -2339,7 +2338,7 @@
         <v>0.16669871486745644</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>33</v>
@@ -2348,18 +2347,18 @@
         <v>4</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>42</v>
@@ -2372,7 +2371,7 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>43</v>
@@ -2385,7 +2384,7 @@
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>44</v>
@@ -2399,10 +2398,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
@@ -2421,7 +2420,7 @@
         <v>0.40249223594996214</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>43</v>
@@ -2440,7 +2439,7 @@
         <v>0.44721359549995793</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>13</v>
@@ -2452,38 +2451,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="6" customFormat="1">
+    <row r="34" spans="1:17" s="6" customFormat="1" ht="15.5">
       <c r="A34" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J34" s="6">
         <v>-428</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O34" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/hsds.xlsx
+++ b/data-raw/hsds.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\assignR\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E208C397-1BFC-0B40-A1D4-C6120DAACE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="28140" windowHeight="12460"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="28140" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hsds" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="179">
   <si>
     <t>Scale</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Stricker unpubl data</t>
   </si>
   <si>
-    <t xml:space="preserve">This study </t>
-  </si>
-  <si>
     <t>VSMOW</t>
   </si>
   <si>
@@ -92,9 +90,6 @@
     <t>exch with two eqib waters at 105 C for 2 h, evacuated and flushed with He online; assumed eps = 80 per mil; glassy C-filled reactor</t>
   </si>
   <si>
-    <t>This study</t>
-  </si>
-  <si>
     <t>exch with two eqib waters over a range of Ts (25-105 C) and drying procedures; assumed eps = 0 per mil; Cr-filled reactor</t>
   </si>
   <si>
@@ -104,9 +99,6 @@
     <t>Utah horse hair</t>
   </si>
   <si>
-    <t>Chesson 2012 IsoForensics Rep</t>
-  </si>
-  <si>
     <t>Bowen et al. 2005 Rapid Comm Mass Spec</t>
   </si>
   <si>
@@ -119,9 +111,6 @@
     <t>calibration against n-C24/n-C28 (di d2H values: -34.5/-247.4)</t>
   </si>
   <si>
-    <t>Chesson 2012 IsoForensics Rep; Howa unpubl data</t>
-  </si>
-  <si>
     <t>Oryx antelope horn from Ethiopia</t>
   </si>
   <si>
@@ -545,9 +534,6 @@
     <t>UT_H_4 data have no associated uncertainty therefore UT_H_4-SA_H_5 comparison is not allowed</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -570,12 +556,24 @@
   </si>
   <si>
     <t>Low_se</t>
+  </si>
+  <si>
+    <t>H_scale_comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magozzi et al. in prep </t>
+  </si>
+  <si>
+    <t>Magozzi et al. in prep</t>
+  </si>
+  <si>
+    <t>Chesson &amp; Howa unpubl data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -668,8 +666,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -946,17 +944,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="19" width="14.81640625" style="1" customWidth="1"/>
+    <col min="1" max="19" width="14.83203125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
@@ -965,63 +963,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1030,10 +1028,10 @@
         <v>-63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>-164</v>
@@ -1042,27 +1040,27 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -1081,10 +1079,10 @@
         <v>0.55708601453115558</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
         <v>-171.5</v>
@@ -1100,28 +1098,28 @@
         <v>0.60249481325568266</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>-108</v>
@@ -1131,10 +1129,10 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2">
         <v>-187</v>
@@ -1144,27 +1142,27 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2">
         <v>-72</v>
@@ -1176,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J5" s="2">
         <v>-138</v>
@@ -1191,30 +1189,30 @@
         <v>5</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>-37.1</v>
@@ -1224,10 +1222,10 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
         <v>-166.3</v>
@@ -1237,27 +1235,27 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>-41</v>
@@ -1267,10 +1265,10 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1">
         <v>-177.9</v>
@@ -1280,27 +1278,27 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>-35.5</v>
@@ -1310,10 +1308,10 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1">
         <v>-153.30000000000001</v>
@@ -1323,27 +1321,27 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>-47.5</v>
@@ -1353,10 +1351,10 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1">
         <v>-178.8</v>
@@ -1366,64 +1364,64 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>-54.1</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1">
         <v>-197</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>-54.7</v>
@@ -1439,10 +1437,10 @@
         <v>0.1170091416963065</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1">
         <v>-197.2</v>
@@ -1458,27 +1456,27 @@
         <v>0.16534083195380267</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>-35.299999999999997</v>
@@ -1494,10 +1492,10 @@
         <v>0.49193495504995377</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1">
         <v>-157</v>
@@ -1513,63 +1511,63 @@
         <v>0.40249223594996214</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>-76.3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1">
         <v>-141.6</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>-52.9</v>
@@ -1585,10 +1583,10 @@
         <v>0.24494897427831783</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2">
         <v>-117</v>
@@ -1604,64 +1602,64 @@
         <v>0.69402209378856716</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>-58.8</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2">
         <v>-128.69999999999999</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>-60.2</v>
@@ -1671,10 +1669,10 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2">
         <v>-130.1</v>
@@ -1684,64 +1682,64 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2">
         <v>-34</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2">
         <v>-172.7</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2">
         <v>-35.4</v>
@@ -1751,10 +1749,10 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2">
         <v>-174.1</v>
@@ -1764,141 +1762,141 @@
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>-51.2</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2">
         <v>-200</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>-47.2</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2">
         <v>-195.9</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2">
         <v>-43.1</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2">
         <v>-191.7</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>-71.599999999999994</v>
@@ -1908,10 +1906,10 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J22" s="2">
         <v>-106.8</v>
@@ -1921,27 +1919,27 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1">
       <c r="A23" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>-70.599999999999994</v>
@@ -1951,10 +1949,10 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J23" s="2">
         <v>-103.2</v>
@@ -1964,28 +1962,28 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>-72.900000000000006</v>
@@ -1995,10 +1993,10 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J24" s="2">
         <v>-105.9</v>
@@ -2008,27 +2006,27 @@
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>-70.400000000000006</v>
@@ -2044,10 +2042,10 @@
         <v>0.34785054261852172</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J25" s="2">
         <v>-109.8</v>
@@ -2063,27 +2061,27 @@
         <v>0.25298221281347033</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>-67.900000000000006</v>
@@ -2093,10 +2091,10 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2">
         <v>-103</v>
@@ -2106,30 +2104,30 @@
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1">
         <v>-50.3</v>
@@ -2140,10 +2138,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J27" s="1">
         <v>-78.5</v>
@@ -2154,27 +2152,27 @@
       <c r="L27" s="2"/>
       <c r="M27" s="3"/>
       <c r="N27" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
         <v>-58.5</v>
@@ -2184,10 +2182,10 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1">
         <v>-88.3</v>
@@ -2197,27 +2195,27 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1">
         <v>-48.7</v>
@@ -2227,10 +2225,10 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1">
         <v>-75.7</v>
@@ -2240,27 +2238,27 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1">
         <v>-60.3</v>
@@ -2270,10 +2268,10 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1">
         <v>-89.6</v>
@@ -2283,27 +2281,27 @@
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1">
         <v>-57.5</v>
@@ -2319,10 +2317,10 @@
         <v>0.21442250696755896</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1">
         <v>-88.7</v>
@@ -2338,30 +2336,30 @@
         <v>0.16669871486745644</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
         <v>-44.4</v>
@@ -2371,10 +2369,10 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1">
         <v>-72.900000000000006</v>
@@ -2384,27 +2382,27 @@
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1">
         <v>-44.2</v>
@@ -2420,10 +2418,10 @@
         <v>0.40249223594996214</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J33" s="1">
         <v>-72.2</v>
@@ -2439,50 +2437,50 @@
         <v>0.44721359549995793</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="6" customFormat="1" ht="15.5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="6" customFormat="1">
       <c r="A34" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J34" s="6">
         <v>-428</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O34" r:id="rId1"/>
+    <hyperlink ref="O34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
